--- a/xo-starter-excel/src/test/resources/META-INF/xo/export/grouping_export.xlsx
+++ b/xo-starter-excel/src/test/resources/META-INF/xo/export/grouping_export.xlsx
@@ -1998,8 +1998,8 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A48:F48"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A48:F48"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
